--- a/node 1 fa_rro/models and others.xlsx
+++ b/node 1 fa_rro/models and others.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566234DF-D9C5-4473-B85D-F54C1F4938A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA6EC8-0994-498C-AD5C-39C04B9B81DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21075" yWindow="-4125" windowWidth="24345" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="22830" yWindow="-3840" windowWidth="24345" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>invoice:</t>
   </si>
@@ -98,6 +98,27 @@
   </si>
   <si>
     <t>lukasz</t>
+  </si>
+  <si>
+    <t>Create models</t>
+  </si>
+  <si>
+    <t>create collections via external script and mlab</t>
+  </si>
+  <si>
+    <t>BJM</t>
+  </si>
+  <si>
+    <t>Wodociągi</t>
+  </si>
+  <si>
+    <t>Prad</t>
+  </si>
+  <si>
+    <t>Woda</t>
+  </si>
+  <si>
+    <t>Internet</t>
   </si>
 </sst>
 </file>
@@ -444,17 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E3:U16"/>
+  <dimension ref="B3:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:21" x14ac:dyDescent="0.25">
@@ -536,6 +558,9 @@
       <c r="J6" s="1">
         <v>43509</v>
       </c>
+      <c r="T6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="5:21" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
@@ -543,6 +568,9 @@
       </c>
       <c r="G7" t="s">
         <v>14</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="5:21" x14ac:dyDescent="0.25">
@@ -600,7 +628,17 @@
         <v>20</v>
       </c>
       <c r="T11" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="5:21" x14ac:dyDescent="0.25">
@@ -645,6 +683,22 @@
       </c>
       <c r="T16" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
